--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\!MAKS!\Projekty\OTWARTE\PCrs\PCrs 2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SOMElectro\PROJEKTY\PCrs\PCrs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAEB82E-FE0A-4DB6-BCE7-6350522D85FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DF5E27-9F12-493E-9461-1C465C1BA33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8263A3D4-9EE8-4EDF-8470-5A02BBDCE6AE}"/>
   </bookViews>
@@ -36,104 +36,246 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
-  <si>
-    <t>Nazwa</t>
-  </si>
-  <si>
-    <t>ilość</t>
-  </si>
-  <si>
-    <t>Opis</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Wykaz części PCrs 2.0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (bez cennika)</t>
-    </r>
-  </si>
-  <si>
-    <t>Atmega32A AU TQFP44 (SMD)</t>
-  </si>
-  <si>
-    <t>kwarc 16mhz</t>
-  </si>
-  <si>
-    <t>pobór do 15mA</t>
-  </si>
-  <si>
-    <t>cewka pobór - 72mA*4 = 288mA</t>
-  </si>
-  <si>
-    <t>do cewek przekaźnika</t>
-  </si>
-  <si>
-    <t>przekaźnik HF3FF 005-1ZST</t>
-  </si>
-  <si>
-    <t>do bramkowania napięcia po kluczu (zwieranie idle do masy)</t>
-  </si>
-  <si>
-    <t>tranzystor N-channel 2N7002</t>
-  </si>
-  <si>
-    <t>rezystor 10k</t>
-  </si>
-  <si>
-    <t>reset</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
   <si>
     <t>goldpin x3</t>
   </si>
   <si>
-    <t>reset na zworkę</t>
-  </si>
-  <si>
-    <t>kondensatory 100nF</t>
-  </si>
-  <si>
-    <t>sekcja zasilania AVR</t>
-  </si>
-  <si>
-    <t>kondensatory 22uF</t>
-  </si>
-  <si>
-    <t>kondensatory 22pF</t>
-  </si>
-  <si>
-    <t>kwarc</t>
-  </si>
-  <si>
-    <t>cewka 10uH</t>
-  </si>
-  <si>
-    <t>DC-DC buck converter TPS54202</t>
-  </si>
-  <si>
-    <t>przetwornica</t>
-  </si>
-  <si>
-    <t>gniazdo KANDA</t>
-  </si>
-  <si>
-    <t>programowanie ISP</t>
+    <t>ISP KANDA connector</t>
+  </si>
+  <si>
+    <t>inductor 10uH</t>
+  </si>
+  <si>
+    <t>capacitor 22pF</t>
+  </si>
+  <si>
+    <t>capacitor 22uF</t>
+  </si>
+  <si>
+    <t>capacitor 100nF</t>
+  </si>
+  <si>
+    <t>resistor 10k</t>
+  </si>
+  <si>
+    <t>crystal oscillator 8MHz</t>
+  </si>
+  <si>
+    <t>inductor 15uH</t>
+  </si>
+  <si>
+    <t>reset jumper</t>
+  </si>
+  <si>
+    <t>AVR power section</t>
+  </si>
+  <si>
+    <t>Bill of materials PCrs 2.0</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>MPU (main AVR unit)              pobór do 15mA</t>
+  </si>
+  <si>
+    <t>high current control                 cewka pobór - 72mA*4 = 288mA</t>
+  </si>
+  <si>
+    <t>to drive relays by MPU, vehicle key detection (idle control)</t>
+  </si>
+  <si>
+    <t>AVR power section (crystal oscillator)</t>
+  </si>
+  <si>
+    <t>ISP programming interface connector</t>
+  </si>
+  <si>
+    <t>12V to 5V</t>
+  </si>
+  <si>
+    <t>power section</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>HPI0630-150</t>
+  </si>
+  <si>
+    <t>ZL231-10PG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC-DC buck converter </t>
+  </si>
+  <si>
+    <t>TPS54202DDCR</t>
+  </si>
+  <si>
+    <t>8.00M-CFPX104</t>
+  </si>
+  <si>
+    <t>RM513011851005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relay </t>
+  </si>
+  <si>
+    <t>ZL201-40G</t>
+  </si>
+  <si>
+    <t>2N7002-7-F</t>
+  </si>
+  <si>
+    <t>transistor N-channel</t>
+  </si>
+  <si>
+    <t>24pin connector</t>
+  </si>
+  <si>
+    <t>I/O connector</t>
+  </si>
+  <si>
+    <t>4pin connector</t>
+  </si>
+  <si>
+    <t>MX-5569-24A2</t>
+  </si>
+  <si>
+    <t>MX-39-30-1040</t>
+  </si>
+  <si>
+    <t>power connector</t>
+  </si>
+  <si>
+    <t>1N5819HW-7-F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schottky diode </t>
+  </si>
+  <si>
+    <t>relay flyback diode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atmega32A AU </t>
+  </si>
+  <si>
+    <t>TQFP44 (SMD)</t>
+  </si>
+  <si>
+    <t>capacitor 10uF</t>
+  </si>
+  <si>
+    <t>buck converter input cap</t>
+  </si>
+  <si>
+    <t>capacitor 1uF</t>
+  </si>
+  <si>
+    <t>buck converter output cap</t>
+  </si>
+  <si>
+    <t>capacitor 75pF</t>
+  </si>
+  <si>
+    <t>buck converter feedback cap</t>
+  </si>
+  <si>
+    <t>resistor 105k</t>
+  </si>
+  <si>
+    <t>resistor 49.9R</t>
+  </si>
+  <si>
+    <t>buck converter output resistor</t>
+  </si>
+  <si>
+    <t>resistor 100k</t>
+  </si>
+  <si>
+    <t>resistor 13.3k</t>
+  </si>
+  <si>
+    <t>resistor 220k</t>
+  </si>
+  <si>
+    <t>vehicle key voltage divider</t>
+  </si>
+  <si>
+    <t>resistor 150k</t>
+  </si>
+  <si>
+    <t>reset pullup, RPM counter pulldown, TMP sensor pullup</t>
+  </si>
+  <si>
+    <t>resistor 50k</t>
+  </si>
+  <si>
+    <t>FOTO sensor pullup</t>
+  </si>
+  <si>
+    <t>buck converter enable resistor (optional)</t>
+  </si>
+  <si>
+    <t>WR06X1053FTL</t>
+  </si>
+  <si>
+    <t>ERJ3EKF4993V</t>
+  </si>
+  <si>
+    <t>resistor 511k (499k)</t>
+  </si>
+  <si>
+    <t>WR06X49R9FTL</t>
+  </si>
+  <si>
+    <t>WR06X1003FTL</t>
+  </si>
+  <si>
+    <t>WR06X1332FTL</t>
+  </si>
+  <si>
+    <t>RC0603FR-07220K</t>
+  </si>
+  <si>
+    <t>WR06X1503FTL</t>
+  </si>
+  <si>
+    <t>AR0603-50K-0.1%</t>
+  </si>
+  <si>
+    <t>WR06X103JTL</t>
+  </si>
+  <si>
+    <t>0603B105K160CT</t>
+  </si>
+  <si>
+    <t>0603B104K500CT</t>
+  </si>
+  <si>
+    <t>C0603C750J5GAC</t>
+  </si>
+  <si>
+    <t>CL10A106KP8NNNC</t>
+  </si>
+  <si>
+    <t>buck converter boot cap, AVR power section, decap</t>
+  </si>
+  <si>
+    <t>GRM188R61A226ME15D</t>
+  </si>
+  <si>
+    <t>06035C220JAT2A</t>
+  </si>
+  <si>
+    <t>LQM18DN100M70L</t>
   </si>
 </sst>
 </file>
@@ -150,6 +292,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -157,6 +300,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -164,7 +308,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,6 +318,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -205,21 +367,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCC00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -548,231 +718,496 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBBF26E-8CE3-4434-8F4B-340C9E1E6F10}">
-  <dimension ref="B1:D26"/>
+  <dimension ref="B1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="67.140625" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="1">
         <v>3</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E22" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="1">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E27" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="C30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
